--- a/Mini-Project-Part-1/output/BootcampOutputPart1.xlsx
+++ b/Mini-Project-Part-1/output/BootcampOutputPart1.xlsx
@@ -14,21 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Total Surveyed</t>
   </si>
   <si>
-    <t>Total Bootcamp attendees</t>
-  </si>
-  <si>
-    <t>% attended bootcamp</t>
+    <t>Total Bootcamp Attendees</t>
+  </si>
+  <si>
+    <t>% Attended Bootcamp</t>
   </si>
   <si>
     <t>Avg. Age</t>
   </si>
   <si>
-    <t>Has a degree</t>
+    <t>Has a Degree</t>
   </si>
   <si>
     <t>% Male</t>
@@ -46,16 +46,19 @@
     <t>6.10%</t>
   </si>
   <si>
-    <t>87.30%</t>
-  </si>
-  <si>
-    <t>59.54%</t>
-  </si>
-  <si>
-    <t>39.14%</t>
-  </si>
-  <si>
-    <t>1.32%</t>
+    <t>31</t>
+  </si>
+  <si>
+    <t>66.84%</t>
+  </si>
+  <si>
+    <t>68.92%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>0.90%</t>
   </si>
   <si>
     <t>$63,741</t>
@@ -461,23 +464,23 @@
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2">
-        <v>31.07</v>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
